--- a/data/trans_orig/P45C_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA07BFA1-AF4F-4B5B-9060-08E11CD2AC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF7380BE-2AB0-49E7-BB3A-936A60F033EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D5A72E6-871A-4CA5-B7D8-E9BA2C0422ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E4634D6-8249-4DF5-92E8-A1C7322FB8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="412">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -113,55 +113,55 @@
     <t>3,01%</t>
   </si>
   <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>94,97%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -173,1138 +173,1108 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C953D85-F521-4583-A170-97E462BF7FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250ED7FA-D482-4860-8937-DE7E9F731EEF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3247,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531ABEEC-9BAA-4CC1-9FFE-0F9D5D7AD37D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C96B1A8-6926-43DE-AFBF-55B05F0D846F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3508,13 +3478,13 @@
         <v>5809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3523,13 +3493,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3538,13 +3508,13 @@
         <v>6918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3529,13 @@
         <v>492648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>469</v>
@@ -3574,10 +3544,10 @@
         <v>512221</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3589,13 +3559,13 @@
         <v>1004869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3633,13 @@
         <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3678,13 +3648,13 @@
         <v>10903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3693,13 +3663,13 @@
         <v>11925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,10 +3684,10 @@
         <v>322089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3729,13 +3699,13 @@
         <v>327833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -3744,13 +3714,13 @@
         <v>649922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3788,13 @@
         <v>25087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3833,13 +3803,13 @@
         <v>20054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -3848,13 +3818,13 @@
         <v>45141</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3839,13 @@
         <v>638353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3884,13 +3854,13 @@
         <v>647651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>1198</v>
@@ -3899,13 +3869,13 @@
         <v>1286004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3988,13 +3958,13 @@
         <v>1964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4003,13 +3973,13 @@
         <v>1964</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,7 +3997,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4039,10 +4009,10 @@
         <v>216629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -4054,10 +4024,10 @@
         <v>429247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4128,13 +4098,13 @@
         <v>3939</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4146,10 +4116,10 @@
         <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4158,13 +4128,13 @@
         <v>8662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4149,13 @@
         <v>268141</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -4197,10 +4167,10 @@
         <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -4209,13 +4179,13 @@
         <v>543449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4253,13 @@
         <v>6125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4298,13 +4268,13 @@
         <v>11326</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -4313,13 +4283,13 @@
         <v>17451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4304,13 @@
         <v>653707</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -4349,13 +4319,13 @@
         <v>679352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>1231</v>
@@ -4364,13 +4334,13 @@
         <v>1333059</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4408,13 @@
         <v>2029</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4453,13 +4423,13 @@
         <v>6183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4468,13 +4438,13 @@
         <v>8213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,10 +4459,10 @@
         <v>767481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
@@ -4504,13 +4474,13 @@
         <v>808171</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M26" s="7">
         <v>1448</v>
@@ -4519,13 +4489,13 @@
         <v>1575651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4563,13 @@
         <v>44012</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -4608,13 +4578,13 @@
         <v>56260</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -4623,13 +4593,13 @@
         <v>100272</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4614,13 @@
         <v>3355036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="H29" s="7">
         <v>3212</v>
@@ -4659,28 +4629,28 @@
         <v>3467167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M29" s="7">
         <v>6352</v>
       </c>
       <c r="N29" s="7">
-        <v>6822203</v>
+        <v>6822202</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4692,7 @@
         <v>6447</v>
       </c>
       <c r="N30" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -4760,7 +4730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A238DA-C2CC-45C7-AABE-2C1853C60C33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2745D3-0642-42CF-B36C-FBD962E975D4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4777,7 +4747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4884,13 +4854,13 @@
         <v>9723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4902,10 +4872,10 @@
         <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4914,13 +4884,13 @@
         <v>16872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4905,13 @@
         <v>284038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -4953,10 +4923,10 @@
         <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -4965,13 +4935,13 @@
         <v>564682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5009,13 @@
         <v>2858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5054,13 +5024,13 @@
         <v>5923</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5069,13 +5039,13 @@
         <v>8781</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5060,13 @@
         <v>495520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -5105,13 +5075,13 @@
         <v>514967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -5120,13 +5090,13 @@
         <v>1010487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5164,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5215,7 +5185,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5224,13 +5194,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,10 +5215,10 @@
         <v>314521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -5263,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5275,10 +5245,10 @@
         <v>647593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -5349,13 +5319,13 @@
         <v>3823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5364,13 +5334,13 @@
         <v>10182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5379,10 +5349,10 @@
         <v>14005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>290</v>
@@ -5406,7 +5376,7 @@
         <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>346</v>
@@ -5421,7 +5391,7 @@
         <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>695</v>
@@ -5430,13 +5400,13 @@
         <v>740367</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5525,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5540,7 +5510,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,7 +5528,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5573,7 +5543,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5588,7 +5558,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5659,13 +5629,13 @@
         <v>2008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5674,13 +5644,13 @@
         <v>4976</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5689,13 +5659,13 @@
         <v>6984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,10 +5680,10 @@
         <v>260144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -5725,13 +5695,13 @@
         <v>267127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -5740,13 +5710,13 @@
         <v>527271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5784,13 @@
         <v>7705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5829,13 +5799,13 @@
         <v>4911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5844,13 +5814,13 @@
         <v>12616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5835,13 @@
         <v>636400</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -5880,13 +5850,13 @@
         <v>672626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="M23" s="7">
         <v>1193</v>
@@ -5895,13 +5865,13 @@
         <v>1309026</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,10 +5942,10 @@
         <v>56</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5987,10 +5957,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5999,10 +5969,10 @@
         <v>10203</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>330</v>
@@ -6038,10 +6008,10 @@
         <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>1486</v>
@@ -6050,13 +6020,13 @@
         <v>1583920</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6094,13 @@
         <v>30803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -6139,13 +6109,13 @@
         <v>39523</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -6154,13 +6124,13 @@
         <v>70326</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6145,13 @@
         <v>3334469</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H29" s="7">
         <v>3277</v>
@@ -6190,13 +6160,13 @@
         <v>3478685</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>6453</v>
@@ -6205,13 +6175,13 @@
         <v>6813154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740B1950-1AE7-4655-B48C-7C625C154074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA2E1A7-E89A-41A4-8E53-2D2B6B545751}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6308,7 +6278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6421,7 +6391,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6436,7 +6406,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6451,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6439,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -6484,7 +6454,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6499,7 +6469,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -6570,13 +6540,13 @@
         <v>21423</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -6585,13 +6555,13 @@
         <v>27135</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -6600,13 +6570,13 @@
         <v>48559</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6591,13 @@
         <v>496418</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>683</v>
@@ -6636,13 +6606,13 @@
         <v>526781</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>1049</v>
@@ -6651,13 +6621,13 @@
         <v>1023199</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,7 +6701,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6740,13 +6710,13 @@
         <v>1925</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6755,13 +6725,13 @@
         <v>1925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,7 +6749,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6791,13 +6761,13 @@
         <v>371359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>892</v>
@@ -6806,13 +6776,13 @@
         <v>692966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6850,13 @@
         <v>3686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6895,13 +6865,13 @@
         <v>1393</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6910,13 +6880,13 @@
         <v>5079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6901,13 @@
         <v>316396</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
@@ -6946,13 +6916,13 @@
         <v>427163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>882</v>
@@ -6961,13 +6931,13 @@
         <v>743560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,7 +7011,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7056,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7071,7 +7041,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,7 +7059,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -7104,7 +7074,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -7119,7 +7089,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -7190,13 +7160,13 @@
         <v>6191</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -7205,13 +7175,13 @@
         <v>7205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7220,13 +7190,13 @@
         <v>13396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7211,13 @@
         <v>270181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
@@ -7256,13 +7226,13 @@
         <v>268417</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>810</v>
@@ -7271,13 +7241,13 @@
         <v>538598</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7315,13 @@
         <v>14318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -7360,13 +7330,13 @@
         <v>13858</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>59</v>
+        <v>396</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -7375,13 +7345,13 @@
         <v>28176</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>406</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7366,13 @@
         <v>611273</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>943</v>
@@ -7411,13 +7381,13 @@
         <v>790185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>409</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="M23" s="7">
         <v>1528</v>
@@ -7426,13 +7396,13 @@
         <v>1401458</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>403</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>411</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,10 +7470,10 @@
         <v>12013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>412</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>112</v>
@@ -7518,10 +7488,10 @@
         <v>56</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -7530,10 +7500,10 @@
         <v>16307</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>46</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>58</v>
@@ -7551,13 +7521,13 @@
         <v>847415</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>342</v>
       </c>
       <c r="H26" s="7">
         <v>1055</v>
@@ -7569,10 +7539,10 @@
         <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="M26" s="7">
         <v>1807</v>
@@ -7581,13 +7551,13 @@
         <v>1709271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,10 +7628,10 @@
         <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -7670,13 +7640,13 @@
         <v>55810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="M28" s="7">
         <v>120</v>
@@ -7685,13 +7655,13 @@
         <v>113441</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>408</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,10 +7679,10 @@
         <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7">
         <v>5288</v>
@@ -7721,13 +7691,13 @@
         <v>3748660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>225</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M29" s="7">
         <v>8607</v>
@@ -7736,13 +7706,13 @@
         <v>7068997</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P45C_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF7380BE-2AB0-49E7-BB3A-936A60F033EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4174EB6A-1A10-4909-BB24-CB88F414529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E4634D6-8249-4DF5-92E8-A1C7322FB8B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1787FCC-EE30-41B5-BCDC-5A0528E1F0EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="392">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -113,1168 +113,1108 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250ED7FA-D482-4860-8937-DE7E9F731EEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC468671-80F3-4E17-8FCC-9311347BD1F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2746,7 +2686,7 @@
         <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -2758,10 +2698,10 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -2770,13 +2710,13 @@
         <v>32926</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2731,13 @@
         <v>600113</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>602</v>
@@ -2809,10 +2749,10 @@
         <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>1187</v>
@@ -2821,13 +2761,13 @@
         <v>1219340</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2823,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2895,13 +2835,13 @@
         <v>12602</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2910,13 +2850,13 @@
         <v>19264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2925,13 +2865,13 @@
         <v>31867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2886,13 @@
         <v>723514</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>720</v>
@@ -2961,13 +2901,13 @@
         <v>757029</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -2976,13 +2916,13 @@
         <v>1480542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +2990,13 @@
         <v>55141</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="H28" s="7">
         <v>55</v>
@@ -3065,13 +3005,13 @@
         <v>56351</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -3080,13 +3020,13 @@
         <v>111492</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3041,13 @@
         <v>3213723</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>3234</v>
@@ -3116,13 +3056,13 @@
         <v>3314648</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M29" s="7">
         <v>6388</v>
@@ -3131,13 +3071,13 @@
         <v>6528372</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3133,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C96B1A8-6926-43DE-AFBF-55B05F0D846F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDB8DD0-AD7D-470C-AD59-24E8C178821B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3234,7 +3174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3339,39 +3279,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,39 +3324,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,39 +3369,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3418,13 @@
         <v>5809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3493,13 +3433,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3508,13 +3448,13 @@
         <v>6918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3469,13 @@
         <v>492648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>469</v>
@@ -3544,10 +3484,10 @@
         <v>512221</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3559,13 +3499,13 @@
         <v>1004869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3573,13 @@
         <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3648,13 +3588,13 @@
         <v>10903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3663,13 +3603,13 @@
         <v>11925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,10 +3624,10 @@
         <v>322089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3699,13 +3639,13 @@
         <v>327833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -3714,13 +3654,13 @@
         <v>649922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3728,13 @@
         <v>25087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3803,13 +3743,13 @@
         <v>20054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -3818,13 +3758,13 @@
         <v>45141</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3779,13 @@
         <v>638353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3854,13 +3794,13 @@
         <v>647651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1198</v>
@@ -3869,13 +3809,13 @@
         <v>1286004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3958,13 +3898,13 @@
         <v>1964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3973,13 +3913,13 @@
         <v>1964</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,7 +3937,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4009,10 +3949,10 @@
         <v>216629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -4024,10 +3964,10 @@
         <v>429247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4098,13 +4038,13 @@
         <v>3939</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4113,13 +4053,13 @@
         <v>4723</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4128,13 +4068,13 @@
         <v>8662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4089,13 @@
         <v>268141</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -4164,13 +4104,13 @@
         <v>275308</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -4179,13 +4119,13 @@
         <v>543449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4193,13 @@
         <v>6125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4268,13 +4208,13 @@
         <v>11326</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -4283,13 +4223,13 @@
         <v>17451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4244,13 @@
         <v>653707</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -4319,13 +4259,13 @@
         <v>679352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>1231</v>
@@ -4334,13 +4274,13 @@
         <v>1333059</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4336,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4408,13 +4348,13 @@
         <v>2029</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4423,13 +4363,13 @@
         <v>6183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4438,13 +4378,13 @@
         <v>8213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,10 +4399,10 @@
         <v>767481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
@@ -4474,13 +4414,13 @@
         <v>808171</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>1448</v>
@@ -4489,13 +4429,13 @@
         <v>1575651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4503,13 @@
         <v>44012</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -4578,13 +4518,13 @@
         <v>56260</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -4593,13 +4533,13 @@
         <v>100272</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4554,13 @@
         <v>3355036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H29" s="7">
         <v>3212</v>
@@ -4629,28 +4569,28 @@
         <v>3467167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M29" s="7">
         <v>6352</v>
       </c>
       <c r="N29" s="7">
-        <v>6822202</v>
+        <v>6822203</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,7 +4632,7 @@
         <v>6447</v>
       </c>
       <c r="N30" s="7">
-        <v>6922474</v>
+        <v>6922475</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -4706,7 +4646,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4730,7 +4670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2745D3-0642-42CF-B36C-FBD962E975D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F898038C-4E53-46E5-A364-690EB4EE1C69}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4747,7 +4687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4854,13 +4794,13 @@
         <v>9723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4869,13 +4809,13 @@
         <v>7149</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4884,13 +4824,13 @@
         <v>16872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4845,13 @@
         <v>284038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -4920,13 +4860,13 @@
         <v>280644</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -4935,13 +4875,13 @@
         <v>564682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +4949,13 @@
         <v>2858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5024,13 +4964,13 @@
         <v>5923</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5039,13 +4979,13 @@
         <v>8781</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5000,13 @@
         <v>495520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -5075,13 +5015,13 @@
         <v>514967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -5090,13 +5030,13 @@
         <v>1010487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5104,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5185,7 +5125,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5194,13 +5134,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,10 +5155,10 @@
         <v>314521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -5233,7 +5173,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5245,10 +5185,10 @@
         <v>647593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -5319,13 +5259,13 @@
         <v>3823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5334,13 +5274,13 @@
         <v>10182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5349,13 +5289,13 @@
         <v>14005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5310,13 @@
         <v>365175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>346</v>
@@ -5385,13 +5325,13 @@
         <v>375192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>695</v>
@@ -5400,10 +5340,10 @@
         <v>740367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>79</v>
@@ -5480,7 +5420,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5495,7 +5435,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5510,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,7 +5468,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5543,7 +5483,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5558,7 +5498,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5629,13 +5569,13 @@
         <v>2008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5644,13 +5584,13 @@
         <v>4976</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5659,13 +5599,13 @@
         <v>6984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,10 +5620,10 @@
         <v>260144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -5695,13 +5635,13 @@
         <v>267127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -5710,13 +5650,13 @@
         <v>527271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5724,13 @@
         <v>7705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5799,13 +5739,13 @@
         <v>4911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5814,13 +5754,13 @@
         <v>12616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5775,13 @@
         <v>636400</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>318</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -5850,13 +5790,13 @@
         <v>672626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c r="M23" s="7">
         <v>1193</v>
@@ -5865,13 +5805,13 @@
         <v>1309026</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,7 +5867,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5942,10 +5882,10 @@
         <v>56</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5957,10 +5897,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5969,13 +5909,13 @@
         <v>10203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,10 +5933,10 @@
         <v>64</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>747</v>
@@ -6008,10 +5948,10 @@
         <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>1486</v>
@@ -6020,13 +5960,13 @@
         <v>1583920</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6034,13 @@
         <v>30803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -6109,13 +6049,13 @@
         <v>39523</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -6124,13 +6064,13 @@
         <v>70326</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6085,13 @@
         <v>3334469</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>3277</v>
@@ -6160,13 +6100,13 @@
         <v>3478685</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>6453</v>
@@ -6175,13 +6115,13 @@
         <v>6813154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>20</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,7 +6177,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA2E1A7-E89A-41A4-8E53-2D2B6B545751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F4A4FD-4898-4B27-9385-371F91CCFF71}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6278,7 +6218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6391,7 +6331,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6406,7 +6346,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6421,7 +6361,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,7 +6379,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -6454,7 +6394,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6469,7 +6409,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -6540,13 +6480,13 @@
         <v>21423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -6555,13 +6495,13 @@
         <v>27135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -6570,13 +6510,13 @@
         <v>48559</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,28 +6531,28 @@
         <v>496418</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>683</v>
       </c>
       <c r="I8" s="7">
-        <v>526781</v>
+        <v>526782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>1049</v>
@@ -6621,13 +6561,13 @@
         <v>1023199</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,7 +6594,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553916</v>
+        <v>553917</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6701,7 +6641,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6710,13 +6650,13 @@
         <v>1925</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6725,13 +6665,13 @@
         <v>1925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6689,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6761,13 +6701,13 @@
         <v>371359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>892</v>
@@ -6776,13 +6716,13 @@
         <v>692966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6790,13 @@
         <v>3686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6865,13 +6805,13 @@
         <v>1393</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6880,13 +6820,13 @@
         <v>5079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6841,13 @@
         <v>316396</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
@@ -6916,13 +6856,13 @@
         <v>427163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
         <v>882</v>
@@ -6931,13 +6871,13 @@
         <v>743560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,7 +6951,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7026,7 +6966,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7041,7 +6981,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,7 +6999,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -7074,7 +7014,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -7089,7 +7029,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -7160,13 +7100,13 @@
         <v>6191</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -7175,13 +7115,13 @@
         <v>7205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7190,13 +7130,13 @@
         <v>13396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7151,13 @@
         <v>270181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
@@ -7226,13 +7166,13 @@
         <v>268417</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>810</v>
@@ -7241,13 +7181,13 @@
         <v>538598</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7255,13 @@
         <v>14318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -7330,13 +7270,13 @@
         <v>13858</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>396</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -7345,13 +7285,13 @@
         <v>28176</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>170</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7306,13 @@
         <v>611273</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
         <v>943</v>
@@ -7381,13 +7321,13 @@
         <v>790185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>1528</v>
@@ -7396,13 +7336,13 @@
         <v>1401458</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,7 +7398,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7470,13 +7410,13 @@
         <v>12013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7488,10 +7428,10 @@
         <v>56</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -7500,13 +7440,13 @@
         <v>16307</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>58</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7461,13 @@
         <v>847415</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>342</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
         <v>1055</v>
@@ -7539,10 +7479,10 @@
         <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="M26" s="7">
         <v>1807</v>
@@ -7551,13 +7491,13 @@
         <v>1709271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>238</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>66</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,13 +7565,13 @@
         <v>57631</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -7640,13 +7580,13 @@
         <v>55810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>218</v>
+        <v>386</v>
       </c>
       <c r="M28" s="7">
         <v>120</v>
@@ -7655,13 +7595,13 @@
         <v>113441</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7616,13 @@
         <v>3320336</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>49</v>
+        <v>389</v>
       </c>
       <c r="H29" s="7">
         <v>5288</v>
@@ -7691,13 +7631,13 @@
         <v>3748660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>8607</v>
@@ -7706,13 +7646,13 @@
         <v>7068997</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>37</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,7 +7708,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4174EB6A-1A10-4909-BB24-CB88F414529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E39018-1F0D-46C0-8DC7-F26878A3F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1787FCC-EE30-41B5-BCDC-5A0528E1F0EF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46742A17-62FD-4F08-8D93-D520BC950D83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="413">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -452,7 +452,52 @@
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>1,17%</t>
@@ -500,9 +545,6 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
     <t>3,22%</t>
   </si>
   <si>
@@ -524,9 +566,6 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
     <t>96,78%</t>
   </si>
   <si>
@@ -545,405 +584,399 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -1010,55 +1043,61 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,04%</t>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -1070,7 +1109,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>99,96%</t>
+    <t>99,95%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -1082,13 +1121,31 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>3,03%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,97%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -1103,118 +1160,124 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC468671-80F3-4E17-8FCC-9311347BD1F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0501F-FAD2-49E4-8928-BE0880CF794E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3157,7 +3220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDB8DD0-AD7D-470C-AD59-24E8C178821B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DDFBC1-C60E-4BA5-B62E-8C9640834969}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3275,43 +3338,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9305</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4017</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13322</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,43 +3389,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D5" s="7">
+        <v>285433</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I5" s="7">
+        <v>279980</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>523</v>
+      </c>
+      <c r="N5" s="7">
+        <v>565413</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,43 +3440,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I6" s="7">
+        <v>283997</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>535</v>
+      </c>
+      <c r="N6" s="7">
+        <v>578735</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3499,13 @@
         <v>5809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3433,13 +3514,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3448,13 +3529,13 @@
         <v>6918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3550,13 @@
         <v>492648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>469</v>
@@ -3484,10 +3565,10 @@
         <v>512221</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3499,10 +3580,10 @@
         <v>1004869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>48</v>
@@ -3573,13 +3654,13 @@
         <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3588,13 +3669,13 @@
         <v>10903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3603,13 +3684,13 @@
         <v>11925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,10 +3705,10 @@
         <v>322089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3639,13 +3720,13 @@
         <v>327833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -3654,13 +3735,13 @@
         <v>649922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,49 +3803,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>25087</v>
+        <v>15782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>20054</v>
+        <v>16037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>45141</v>
+        <v>31819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,49 +3854,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>598</v>
+        <v>325</v>
       </c>
       <c r="D14" s="7">
-        <v>638353</v>
+        <v>352920</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="I14" s="7">
-        <v>647651</v>
+        <v>367671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
-        <v>1198</v>
+        <v>675</v>
       </c>
       <c r="N14" s="7">
-        <v>1286004</v>
+        <v>720591</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,10 +3905,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>621</v>
+        <v>339</v>
       </c>
       <c r="D15" s="7">
-        <v>663440</v>
+        <v>368702</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3839,10 +3920,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>366</v>
       </c>
       <c r="I15" s="7">
-        <v>667705</v>
+        <v>383708</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3854,10 +3935,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1240</v>
+        <v>705</v>
       </c>
       <c r="N15" s="7">
-        <v>1331145</v>
+        <v>752410</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3889,7 +3970,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3898,13 +3979,13 @@
         <v>1964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3913,13 +3994,13 @@
         <v>1964</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +4018,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3949,10 +4030,10 @@
         <v>216629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3964,10 +4045,10 @@
         <v>429247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4041,10 +4122,10 @@
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4056,10 +4137,10 @@
         <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4068,13 +4149,13 @@
         <v>8662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,10 +4173,10 @@
         <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -4107,10 +4188,10 @@
         <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -4119,13 +4200,13 @@
         <v>543449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,10 +4277,10 @@
         <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4208,10 +4289,10 @@
         <v>11326</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>95</v>
@@ -4223,13 +4304,13 @@
         <v>17451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,10 +4328,10 @@
         <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -4259,13 +4340,13 @@
         <v>679352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M23" s="7">
         <v>1231</v>
@@ -4274,13 +4355,13 @@
         <v>1333059</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4429,13 @@
         <v>2029</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4363,10 +4444,10 @@
         <v>6183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>58</v>
@@ -4378,13 +4459,13 @@
         <v>8213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +4480,10 @@
         <v>767481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
@@ -4414,13 +4495,13 @@
         <v>808171</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>1448</v>
@@ -4429,13 +4510,13 @@
         <v>1575651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4584,13 @@
         <v>44012</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -4518,13 +4599,13 @@
         <v>56260</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -4536,10 +4617,10 @@
         <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,16 +4632,16 @@
         <v>3140</v>
       </c>
       <c r="D29" s="7">
-        <v>3355036</v>
+        <v>3355035</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H29" s="7">
         <v>3212</v>
@@ -4569,13 +4650,13 @@
         <v>3467167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>6352</v>
@@ -4587,10 +4668,10 @@
         <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,7 +4683,7 @@
         <v>3182</v>
       </c>
       <c r="D30" s="7">
-        <v>3399048</v>
+        <v>3399047</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -4670,7 +4751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F898038C-4E53-46E5-A364-690EB4EE1C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461D9ADC-F3AC-44A0-A564-0BDA965401E5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4687,7 +4768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4794,13 +4875,13 @@
         <v>9723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4815,7 +4896,7 @@
         <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4824,13 +4905,13 @@
         <v>16872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4926,13 @@
         <v>284038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -4863,7 +4944,7 @@
         <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>79</v>
@@ -4875,13 +4956,13 @@
         <v>564682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +5030,13 @@
         <v>2858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4964,13 +5045,13 @@
         <v>5923</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4979,13 +5060,13 @@
         <v>8781</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,10 +5081,10 @@
         <v>495520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>90</v>
@@ -5015,13 +5096,13 @@
         <v>514967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -5030,13 +5111,13 @@
         <v>1010487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5185,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5125,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5134,13 +5215,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,10 +5236,10 @@
         <v>314521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -5173,7 +5254,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5185,10 +5266,10 @@
         <v>647593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -5262,10 +5343,10 @@
         <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5274,13 +5355,13 @@
         <v>10182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5289,7 +5370,7 @@
         <v>14005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>74</v>
@@ -5313,10 +5394,10 @@
         <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>346</v>
@@ -5325,13 +5406,13 @@
         <v>375192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>695</v>
@@ -5340,7 +5421,7 @@
         <v>740367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>119</v>
@@ -5420,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5435,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5450,7 +5531,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,7 +5549,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5483,7 +5564,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5498,7 +5579,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5569,13 +5650,13 @@
         <v>2008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5584,13 +5665,13 @@
         <v>4976</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5599,13 +5680,13 @@
         <v>6984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,10 +5701,10 @@
         <v>260144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -5635,10 +5716,10 @@
         <v>267127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>87</v>
@@ -5650,13 +5731,13 @@
         <v>527271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5805,13 @@
         <v>7705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5739,13 +5820,13 @@
         <v>4911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5754,7 +5835,7 @@
         <v>12616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>56</v>
@@ -5775,13 +5856,13 @@
         <v>636400</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -5790,10 +5871,10 @@
         <v>672626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>90</v>
@@ -5805,7 +5886,7 @@
         <v>1309026</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>129</v>
@@ -5882,10 +5963,10 @@
         <v>56</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5897,7 +5978,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>24</v>
@@ -5909,13 +5990,13 @@
         <v>10203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,10 +6014,10 @@
         <v>64</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H26" s="7">
         <v>747</v>
@@ -5951,7 +6032,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>1486</v>
@@ -5960,13 +6041,13 @@
         <v>1583920</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6115,13 @@
         <v>30803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -6049,13 +6130,13 @@
         <v>39523</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -6064,13 +6145,13 @@
         <v>70326</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6166,13 @@
         <v>3334469</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="H29" s="7">
         <v>3277</v>
@@ -6100,13 +6181,13 @@
         <v>3478685</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>6453</v>
@@ -6115,13 +6196,13 @@
         <v>6813154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,7 +6282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F4A4FD-4898-4B27-9385-371F91CCFF71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CA1B97-72D2-4C75-BC1E-7B6BD01E0F70}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6218,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6331,7 +6412,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6346,7 +6427,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6361,7 +6442,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6454,13 @@
         <v>331</v>
       </c>
       <c r="D5" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -6388,13 +6469,13 @@
         <v>538</v>
       </c>
       <c r="I5" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6403,13 +6484,13 @@
         <v>869</v>
       </c>
       <c r="N5" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -6424,7 +6505,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -6439,7 +6520,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -6454,7 +6535,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -6477,46 +6558,46 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>21423</v>
+        <v>21412</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>27135</v>
+        <v>25591</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>48559</v>
+        <v>47003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,46 +6609,46 @@
         <v>366</v>
       </c>
       <c r="D8" s="7">
-        <v>496418</v>
+        <v>495566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>683</v>
       </c>
       <c r="I8" s="7">
-        <v>526782</v>
+        <v>488785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>1049</v>
       </c>
       <c r="N8" s="7">
-        <v>1023199</v>
+        <v>984350</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,7 +6660,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>517841</v>
+        <v>516978</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -6594,7 +6675,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553917</v>
+        <v>514376</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6609,7 +6690,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1071758</v>
+        <v>1031353</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6641,37 +6722,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1925</v>
+        <v>1857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>1925</v>
+        <v>1857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6764,13 @@
         <v>359</v>
       </c>
       <c r="D11" s="7">
-        <v>321607</v>
+        <v>315451</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6698,31 +6779,31 @@
         <v>533</v>
       </c>
       <c r="I11" s="7">
-        <v>371359</v>
+        <v>347271</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>892</v>
       </c>
       <c r="N11" s="7">
-        <v>692966</v>
+        <v>662722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,7 +6815,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321607</v>
+        <v>315451</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6749,7 +6830,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6764,7 +6845,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694891</v>
+        <v>664579</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6787,46 +6868,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3686</v>
+        <v>3566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1393</v>
+        <v>1271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>5079</v>
+        <v>4837</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,46 +6919,46 @@
         <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>316396</v>
+        <v>306647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
       </c>
       <c r="I14" s="7">
-        <v>427163</v>
+        <v>474447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>882</v>
       </c>
       <c r="N14" s="7">
-        <v>743560</v>
+        <v>781094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,7 +6970,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>320082</v>
+        <v>310213</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6904,7 +6985,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6919,7 +7000,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>748639</v>
+        <v>785931</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6951,7 +7032,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6966,7 +7047,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6981,7 +7062,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +7074,13 @@
         <v>279</v>
       </c>
       <c r="D17" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -7008,13 +7089,13 @@
         <v>491</v>
       </c>
       <c r="I17" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -7023,13 +7104,13 @@
         <v>770</v>
       </c>
       <c r="N17" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -7044,7 +7125,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -7059,7 +7140,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -7074,7 +7155,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -7097,46 +7178,46 @@
         <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>6191</v>
+        <v>6074</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>7205</v>
+        <v>6643</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>279</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>13396</v>
+        <v>12717</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,46 +7229,46 @@
         <v>361</v>
       </c>
       <c r="D20" s="7">
-        <v>270181</v>
+        <v>262763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
       </c>
       <c r="I20" s="7">
-        <v>268417</v>
+        <v>250413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
         <v>810</v>
       </c>
       <c r="N20" s="7">
-        <v>538598</v>
+        <v>513176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,7 +7280,7 @@
         <v>369</v>
       </c>
       <c r="D21" s="7">
-        <v>276372</v>
+        <v>268837</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -7214,7 +7295,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -7229,7 +7310,7 @@
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551994</v>
+        <v>525893</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -7252,46 +7333,46 @@
         <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>14318</v>
+        <v>14066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>13858</v>
+        <v>12891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
       </c>
       <c r="N22" s="7">
-        <v>28176</v>
+        <v>26957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,46 +7384,46 @@
         <v>585</v>
       </c>
       <c r="D23" s="7">
-        <v>611273</v>
+        <v>608081</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="H23" s="7">
         <v>943</v>
       </c>
       <c r="I23" s="7">
-        <v>790185</v>
+        <v>836212</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>1528</v>
       </c>
       <c r="N23" s="7">
-        <v>1401458</v>
+        <v>1444292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,7 +7435,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>625591</v>
+        <v>622147</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -7369,7 +7450,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>804043</v>
+        <v>849103</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -7384,7 +7465,7 @@
         <v>1556</v>
       </c>
       <c r="N24" s="7">
-        <v>1429634</v>
+        <v>1471249</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -7407,46 +7488,46 @@
         <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>12013</v>
+        <v>10170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>4294</v>
+        <v>3443</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>402</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>16307</v>
+        <v>13614</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>230</v>
+        <v>403</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,46 +7539,46 @@
         <v>752</v>
       </c>
       <c r="D26" s="7">
-        <v>847415</v>
+        <v>918550</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>404</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>1055</v>
       </c>
       <c r="I26" s="7">
-        <v>861856</v>
+        <v>712389</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>64</v>
+        <v>407</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>1807</v>
       </c>
       <c r="N26" s="7">
-        <v>1709271</v>
+        <v>1630939</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>238</v>
+        <v>408</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,7 +7590,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7524,7 +7605,7 @@
         <v>1059</v>
       </c>
       <c r="I27" s="7">
-        <v>866150</v>
+        <v>715832</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -7539,7 +7620,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725578</v>
+        <v>1644553</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -7562,46 +7643,46 @@
         <v>50</v>
       </c>
       <c r="D28" s="7">
-        <v>57631</v>
+        <v>55289</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>384</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
       </c>
       <c r="I28" s="7">
-        <v>55810</v>
+        <v>51696</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>357</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>386</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>120</v>
       </c>
       <c r="N28" s="7">
-        <v>113441</v>
+        <v>106985</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,46 +7694,46 @@
         <v>3319</v>
       </c>
       <c r="D29" s="7">
-        <v>3320336</v>
+        <v>3397241</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>389</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>5288</v>
       </c>
       <c r="I29" s="7">
-        <v>3748660</v>
+        <v>3607424</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>8607</v>
       </c>
       <c r="N29" s="7">
-        <v>7068997</v>
+        <v>7004665</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,7 +7745,7 @@
         <v>3369</v>
       </c>
       <c r="D30" s="7">
-        <v>3377967</v>
+        <v>3452530</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7679,7 +7760,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3804470</v>
+        <v>3659120</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7694,7 +7775,7 @@
         <v>8727</v>
       </c>
       <c r="N30" s="7">
-        <v>7182438</v>
+        <v>7111650</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
